--- a/AccountE2E001.xlsx
+++ b/AccountE2E001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB15BE-5803-46FA-B324-8CA0D07F1FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F621311-26AA-4C39-9948-1C7BCD3CC27A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
